--- a/Universidad/AC/Practicas/P03_PREVIO.xlsx
+++ b/Universidad/AC/Practicas/P03_PREVIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMPere\Desktop\Apuntes Compartidos\trunk\Universidad\AC\Practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F45D7C6-5406-46FE-BD87-B2EF28E920E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1390E2DF-ED91-41C6-8E5E-AF1CCDCA9247}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13872" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{7B2615AE-625C-4A24-9854-309117D09A6A}"/>
+    <workbookView xWindow="14256" yWindow="24" windowWidth="17280" windowHeight="8964" xr2:uid="{7B2615AE-625C-4A24-9854-309117D09A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="16">
   <si>
     <t>IF</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>SIN BYPASS</t>
+  </si>
+  <si>
+    <t>REORDENAMINETO</t>
+  </si>
+  <si>
+    <t>*ID</t>
   </si>
 </sst>
 </file>
@@ -424,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42B82DF-2245-4EAD-A2CA-278219B59DCD}">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD37" sqref="AD37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -466,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -483,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -503,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -523,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>0</v>
       </c>
@@ -543,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -566,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
         <v>0</v>
       </c>
@@ -586,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>10</v>
       </c>
@@ -606,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
         <v>0</v>
       </c>
@@ -623,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M11" t="s">
         <v>0</v>
       </c>
@@ -640,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N12" t="s">
         <v>0</v>
       </c>
@@ -657,45 +663,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="O13" t="s">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="P14" t="s">
-        <v>10</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R15" t="s">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -956,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="25:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="Y33" t="s">
         <v>0</v>
       </c>
@@ -979,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="25:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AB34" t="s">
         <v>10</v>
       </c>
@@ -987,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="25:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AD35" t="s">
         <v>0</v>
       </c>
@@ -1001,6 +1010,260 @@
         <v>3</v>
       </c>
       <c r="AH35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>7</v>
+      </c>
+      <c r="O51" t="s">
+        <v>3</v>
+      </c>
+      <c r="P51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="M52" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>2</v>
+      </c>
+      <c r="P52" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="N53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>15</v>
+      </c>
+      <c r="P53" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="O54" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="P55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1</v>
+      </c>
+      <c r="R55" t="s">
+        <v>2</v>
+      </c>
+      <c r="S55" t="s">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s">
         <v>4</v>
       </c>
     </row>
